--- a/regions/12/mshenebloba/mshenebloba_dziritadi machveneblebi.xlsx
+++ b/regions/12/mshenebloba/mshenebloba_dziritadi machveneblebi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -137,6 +137,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -621,8 +622,12 @@
       <c r="P3" s="7">
         <v>2020</v>
       </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="Q3" s="7">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="7">
+        <v>2022</v>
+      </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
@@ -675,8 +680,12 @@
       <c r="P4" s="9">
         <v>114.1</v>
       </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="Q4" s="9">
+        <v>157.5</v>
+      </c>
+      <c r="R4" s="9">
+        <v>170.4</v>
+      </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
@@ -729,8 +738,12 @@
       <c r="P5" s="9">
         <v>116.3</v>
       </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="Q5" s="9">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="R5" s="9">
+        <v>169</v>
+      </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
@@ -783,8 +796,12 @@
       <c r="P6" s="15">
         <v>1978</v>
       </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="Q6" s="15">
+        <v>2163</v>
+      </c>
+      <c r="R6" s="15">
+        <v>2125</v>
+      </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
@@ -837,8 +854,12 @@
       <c r="P7" s="15">
         <v>1861</v>
       </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="Q7" s="15">
+        <v>2014</v>
+      </c>
+      <c r="R7" s="15">
+        <v>1746</v>
+      </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
@@ -891,8 +912,12 @@
       <c r="P8" s="9">
         <v>953.1</v>
       </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="Q8" s="9">
+        <v>1143.7</v>
+      </c>
+      <c r="R8" s="9">
+        <v>1291.0999999999999</v>
+      </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
@@ -945,8 +970,12 @@
       <c r="P9" s="9">
         <v>74.5</v>
       </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
+      <c r="Q9" s="9">
+        <v>113.7</v>
+      </c>
+      <c r="R9" s="9">
+        <v>101.9</v>
+      </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
@@ -999,8 +1028,12 @@
       <c r="P10" s="9">
         <v>21.5</v>
       </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+      <c r="Q10" s="9">
+        <v>28</v>
+      </c>
+      <c r="R10" s="9">
+        <v>27.4</v>
+      </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
@@ -1053,8 +1086,12 @@
       <c r="P11" s="9">
         <v>41.8</v>
       </c>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+      <c r="Q11" s="9">
+        <v>43.5</v>
+      </c>
+      <c r="R11" s="9">
+        <v>67.099999999999994</v>
+      </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
@@ -1107,8 +1144,12 @@
       <c r="P12" s="9">
         <v>3.6</v>
       </c>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="Q12" s="9">
+        <v>3.1</v>
+      </c>
+      <c r="R12" s="9">
+        <v>1.6</v>
+      </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
@@ -1161,8 +1202,12 @@
       <c r="P13" s="9">
         <v>79.599999999999994</v>
       </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
+      <c r="Q13" s="9">
+        <v>111.4</v>
+      </c>
+      <c r="R13" s="9">
+        <v>103.7</v>
+      </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
